--- a/data/trans_bre/P16A_n_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R2-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.88371514570721</v>
+        <v>3.224807884085843</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.703877188977925</v>
+        <v>8.16036908783421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.836038544669838</v>
+        <v>5.735104905491768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.412379701645851</v>
+        <v>3.245321652938753</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1370256761829823</v>
+        <v>0.1459887927833269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3013975139724687</v>
+        <v>0.2898714590998722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2749830793765843</v>
+        <v>0.2494208100403446</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1191513584138829</v>
+        <v>0.1133400459965735</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.84378860609232</v>
+        <v>17.20647037639658</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.41214632758008</v>
+        <v>25.19203234408936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.50891663134856</v>
+        <v>19.71235560007223</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.69128591425289</v>
+        <v>15.74194673520061</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.198034137705533</v>
+        <v>1.23215672485362</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.183088162495356</v>
+        <v>1.182721640774836</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.299334614272693</v>
+        <v>1.309832367719452</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.716244197315936</v>
+        <v>0.6859347275183774</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.6272821551044786</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4932218146735847</v>
+        <v>0.4932218146735848</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11.92550808146932</v>
+        <v>11.88220712941662</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.896508071518248</v>
+        <v>9.641452315882278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.990398769911904</v>
+        <v>8.143833575844512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.566383625959052</v>
+        <v>6.662916764424769</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7122362824974774</v>
+        <v>0.7179802266832297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3236852448966535</v>
+        <v>0.3116838562223452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3543691908099145</v>
+        <v>0.3304721739557518</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2258022413376964</v>
+        <v>0.2284003140601924</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>21.93353991227851</v>
+        <v>22.40023459737328</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.88269884276028</v>
+        <v>22.00843446338301</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.26394308182463</v>
+        <v>19.56634953698436</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.52393636102785</v>
+        <v>17.4836471499191</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.913198977864818</v>
+        <v>1.951291673650665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9528066015433858</v>
+        <v>0.9428546568175648</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.014995733790691</v>
+        <v>0.9477456309548469</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8349168818655291</v>
+        <v>0.7968892881554209</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.328802281350222</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.133144982268892</v>
+        <v>8.13314498226887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6609237639002716</v>
@@ -849,7 +849,7 @@
         <v>0.3374724569350021</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2290122116987268</v>
+        <v>0.2290122116987262</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.859016561363302</v>
+        <v>4.076340535047937</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.216130589714584</v>
+        <v>6.428051205755306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.01041511900961392</v>
+        <v>0.06196889337703184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.468535443864003</v>
+        <v>1.288439527916708</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2608195508381604</v>
+        <v>0.1971675982398715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1748734632753389</v>
+        <v>0.195541114802252</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.002905409221738563</v>
+        <v>0.001098332324938606</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03654144592590839</v>
+        <v>0.03599948642947292</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.858912614362</v>
+        <v>17.0905129213782</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.47881275584199</v>
+        <v>22.56339125525292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.11754480241159</v>
+        <v>14.07924460848273</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.73739697259092</v>
+        <v>14.215851504553</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.299814085295632</v>
+        <v>1.27390224123122</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8014138558314415</v>
+        <v>0.9051219848015903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.756828177656454</v>
+        <v>0.7557104683518193</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4577642882563649</v>
+        <v>0.4533032872351346</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>14.17330861339607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12.55786780444905</v>
+        <v>12.55786780444906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7695889701289681</v>
@@ -949,7 +949,7 @@
         <v>0.4720432567162423</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3844338530286905</v>
+        <v>0.3844338530286907</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.408985192353549</v>
+        <v>7.552897041129114</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.42387369411533</v>
+        <v>14.04865188229692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.84251626028056</v>
+        <v>7.395056422513267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.70972872636847</v>
+        <v>4.850822995467261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3527321899197398</v>
+        <v>0.3762914450489618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4716636408686389</v>
+        <v>0.5022526615188559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2018049011714359</v>
+        <v>0.2241948962547131</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1580096833917147</v>
+        <v>0.1293061725840968</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>19.3307261800576</v>
+        <v>19.52566930693454</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.34175846965481</v>
+        <v>27.84424583460448</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20.7216929101143</v>
+        <v>20.76420351740661</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19.98117541382583</v>
+        <v>20.17235490520164</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.257976579162484</v>
+        <v>1.351195284084829</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.283094097813109</v>
+        <v>1.366568336159341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.765860542639333</v>
+        <v>0.7951990546247825</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7343069717694215</v>
+        <v>0.7314003803036555</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>1.270667267354171</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5391117009560951</v>
+        <v>0.539111700956095</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.93308737135695</v>
+        <v>11.95114944979836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.45088808001137</v>
+        <v>16.27461302497221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14.99667521496327</v>
+        <v>15.96102613958935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.598941834847476</v>
+        <v>7.53170113451302</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.60623583488156</v>
+        <v>0.5974326412194855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4816587441620982</v>
+        <v>0.5098237830544591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6063844236767006</v>
+        <v>0.6732785567989298</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2303939257572153</v>
+        <v>0.2412821012162925</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.22588744015991</v>
+        <v>28.34959405036104</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>35.5015851349543</v>
+        <v>34.54996319576898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32.6266465127331</v>
+        <v>32.98423250544489</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.06257143708796</v>
+        <v>21.91037258693836</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.354274704646022</v>
+        <v>2.373333364339369</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.537287908072695</v>
+        <v>1.559409200835442</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.048113717152844</v>
+        <v>2.178690753130623</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9307642559584673</v>
+        <v>0.9372569042834471</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>9.485231336989694</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.719777023084728</v>
+        <v>7.719777023084701</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6220118454461117</v>
@@ -1149,7 +1149,7 @@
         <v>0.4539721227373956</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2103912729090787</v>
+        <v>0.2103912729090779</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.504832091348218</v>
+        <v>4.176642726101928</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.421689394465754</v>
+        <v>2.990796414938158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.716402072336184</v>
+        <v>1.8462604158454</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8600445664872121</v>
+        <v>1.147155804046089</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1574442764459369</v>
+        <v>0.184417064850003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0949767945959276</v>
+        <v>0.08379937748430739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06308088721781435</v>
+        <v>0.07272574017346133</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02381096010813877</v>
+        <v>0.02820335993361282</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>18.76301772198027</v>
+        <v>18.74631510504188</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.74157255529173</v>
+        <v>18.86763397519823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.13518752169159</v>
+        <v>17.53244162321184</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.44121952248312</v>
+        <v>14.48949465051432</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.216583249343649</v>
+        <v>1.273319203379355</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7465501001045577</v>
+        <v>0.6928899473236806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9174816611747983</v>
+        <v>1.020600570327854</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4449569983650787</v>
+        <v>0.4421501195958373</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.644142839646413</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.478192923099659</v>
+        <v>8.478192923099664</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6273724141166832</v>
@@ -1249,7 +1249,7 @@
         <v>0.4067524508342087</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2364398615612333</v>
+        <v>0.2364398615612335</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.455572795634603</v>
+        <v>5.706376875667509</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.325566018252575</v>
+        <v>8.946633309601829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.672801046660602</v>
+        <v>3.085468547191179</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.548288813056578</v>
+        <v>3.123953962892114</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3331508324217099</v>
+        <v>0.2895877928126087</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3078233396859245</v>
+        <v>0.3330459132644972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1496540320490101</v>
+        <v>0.1334765884068025</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0640899492329761</v>
+        <v>0.07827963729205849</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.44707880098328</v>
+        <v>15.12850931595096</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.64282715746487</v>
+        <v>19.20983451467362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.04398066800568</v>
+        <v>13.45984311942935</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.23550588249391</v>
+        <v>13.51188754853395</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.008382251965375</v>
+        <v>1.003171215228092</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8603001354719781</v>
+        <v>0.9119169492724373</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7280600399482197</v>
+        <v>0.7265166661569609</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4084826238028887</v>
+        <v>0.411164436932181</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.955886919184695</v>
+        <v>4.916571422959928</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.646570885576975</v>
+        <v>5.544834502024287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.963855224217603</v>
+        <v>6.003225778990321</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.859223984641234</v>
+        <v>8.152248276897508</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2103127570781141</v>
+        <v>0.215885580262562</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2341492968386419</v>
+        <v>0.2315531518963315</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2192898666150381</v>
+        <v>0.2214531167658249</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3222962287215876</v>
+        <v>0.3209169813180169</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.2111517486149</v>
+        <v>13.85286792575753</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>14.74929021508195</v>
+        <v>14.22980789017552</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.52047168573704</v>
+        <v>15.17888729354145</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16.0568120463777</v>
+        <v>16.20336036313871</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7586154239842572</v>
+        <v>0.7417133085925227</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7863699188505915</v>
+        <v>0.7469659866171511</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6988117602893684</v>
+        <v>0.6805954781698095</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7946567418935373</v>
+        <v>0.8072282803504454</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>11.86054887031918</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10.81819443988607</v>
+        <v>10.81819443988606</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7058846547349035</v>
@@ -1449,7 +1449,7 @@
         <v>0.516824172411681</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.3651769577316733</v>
+        <v>0.3651769577316729</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.16188233719176</v>
+        <v>10.23889058916731</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>12.67089030022892</v>
+        <v>12.39226578777334</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.624203744394165</v>
+        <v>9.625889667303126</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.57750254593391</v>
+        <v>8.784766303800041</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5535379614622813</v>
+        <v>0.5603435707946853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4761297536630178</v>
+        <v>0.4648462225806367</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3986000940702745</v>
+        <v>0.4056987177459561</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2751264809482274</v>
+        <v>0.286597139811078</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.23762231606501</v>
+        <v>14.31309110133251</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.99430887716425</v>
+        <v>17.19280705209707</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.22587762900643</v>
+        <v>13.97954277316719</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.77333588060637</v>
+        <v>12.82075922100675</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8739907865159598</v>
+        <v>0.8673580734810314</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.709580481732678</v>
+        <v>0.7147960926917554</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6411376141005697</v>
+        <v>0.6365925248251281</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.4472201595848452</v>
+        <v>0.4511017236849507</v>
       </c>
     </row>
     <row r="31">
